--- a/水泥.excel/1102/1102(102.1~105.12)EPM.xlsx
+++ b/水泥.excel/1102/1102(102.1~105.12)EPM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>營業收入淨額_x</t>
   </si>
@@ -163,283 +163,7 @@
     <t>本月</t>
   </si>
   <si>
-    <t>6,018,213</t>
-  </si>
-  <si>
-    <t>2,552,357</t>
-  </si>
-  <si>
-    <t>5,428,755</t>
-  </si>
-  <si>
-    <t>5,930,748</t>
-  </si>
-  <si>
-    <t>6,239,676</t>
-  </si>
-  <si>
-    <t>5,952,754</t>
-  </si>
-  <si>
-    <t>5,942,364</t>
-  </si>
-  <si>
-    <t>5,786,107</t>
-  </si>
-  <si>
-    <t>5,879,394</t>
-  </si>
-  <si>
-    <t>6,478,670</t>
-  </si>
-  <si>
-    <t>6,884,975</t>
-  </si>
-  <si>
-    <t>7,124,072</t>
-  </si>
-  <si>
-    <t>6,016,442</t>
-  </si>
-  <si>
-    <t>3,173,166</t>
-  </si>
-  <si>
-    <t>7,078,477</t>
-  </si>
-  <si>
-    <t>6,735,805</t>
-  </si>
-  <si>
-    <t>7,588,325</t>
-  </si>
-  <si>
-    <t>6,899,620</t>
-  </si>
-  <si>
-    <t>6,647,943</t>
-  </si>
-  <si>
-    <t>6,631,880</t>
-  </si>
-  <si>
-    <t>6,506,670</t>
-  </si>
-  <si>
-    <t>6,766,999</t>
-  </si>
-  <si>
-    <t>6,499,550</t>
-  </si>
-  <si>
-    <t>7,217,554</t>
-  </si>
-  <si>
-    <t>6,851,825</t>
-  </si>
-  <si>
-    <t>3,279,346</t>
-  </si>
-  <si>
-    <t>5,274,419</t>
-  </si>
-  <si>
-    <t>5,767,824</t>
-  </si>
-  <si>
-    <t>5,623,713</t>
-  </si>
-  <si>
-    <t>5,516,532</t>
-  </si>
-  <si>
-    <t>5,746,639</t>
-  </si>
-  <si>
-    <t>5,512,417</t>
-  </si>
-  <si>
-    <t>5,546,527</t>
-  </si>
-  <si>
-    <t>5,901,983</t>
-  </si>
-  <si>
-    <t>5,547,070</t>
-  </si>
-  <si>
-    <t>5,867,232</t>
-  </si>
-  <si>
-    <t>5,066,062</t>
-  </si>
-  <si>
-    <t>2,595,177</t>
-  </si>
-  <si>
-    <t>5,338,549</t>
-  </si>
-  <si>
-    <t>5,557,712</t>
-  </si>
-  <si>
-    <t>5,339,750</t>
-  </si>
-  <si>
-    <t>5,232,410</t>
-  </si>
-  <si>
-    <t>4,788,866</t>
-  </si>
-  <si>
-    <t>5,106,282</t>
-  </si>
-  <si>
-    <t>5,078,411</t>
-  </si>
-  <si>
-    <t>5,513,659</t>
-  </si>
-  <si>
-    <t>5,331,778</t>
-  </si>
-  <si>
-    <t>6,023,954</t>
-  </si>
-  <si>
     <t>本年累計</t>
-  </si>
-  <si>
-    <t>8,570,570</t>
-  </si>
-  <si>
-    <t>13,999,325</t>
-  </si>
-  <si>
-    <t>19,930,073</t>
-  </si>
-  <si>
-    <t>26,169,749</t>
-  </si>
-  <si>
-    <t>32,122,503</t>
-  </si>
-  <si>
-    <t>38,064,867</t>
-  </si>
-  <si>
-    <t>43,850,974</t>
-  </si>
-  <si>
-    <t>49,730,368</t>
-  </si>
-  <si>
-    <t>56,209,038</t>
-  </si>
-  <si>
-    <t>63,094,013</t>
-  </si>
-  <si>
-    <t>70,218,085</t>
-  </si>
-  <si>
-    <t>9,189,608</t>
-  </si>
-  <si>
-    <t>16,268,085</t>
-  </si>
-  <si>
-    <t>23,003,890</t>
-  </si>
-  <si>
-    <t>30,592,215</t>
-  </si>
-  <si>
-    <t>37,491,835</t>
-  </si>
-  <si>
-    <t>44,139,778</t>
-  </si>
-  <si>
-    <t>50,771,658</t>
-  </si>
-  <si>
-    <t>57,278,328</t>
-  </si>
-  <si>
-    <t>64,045,327</t>
-  </si>
-  <si>
-    <t>70,544,877</t>
-  </si>
-  <si>
-    <t>77,762,431</t>
-  </si>
-  <si>
-    <t>10,131,171</t>
-  </si>
-  <si>
-    <t>15,405,590</t>
-  </si>
-  <si>
-    <t>21,173,414</t>
-  </si>
-  <si>
-    <t>26,797,127</t>
-  </si>
-  <si>
-    <t>32,313,659</t>
-  </si>
-  <si>
-    <t>38,060,298</t>
-  </si>
-  <si>
-    <t>43,572,715</t>
-  </si>
-  <si>
-    <t>49,119,242</t>
-  </si>
-  <si>
-    <t>55,021,225</t>
-  </si>
-  <si>
-    <t>60,568,295</t>
-  </si>
-  <si>
-    <t>66,435,527</t>
-  </si>
-  <si>
-    <t>7,661,239</t>
-  </si>
-  <si>
-    <t>12,999,788</t>
-  </si>
-  <si>
-    <t>18,557,500</t>
-  </si>
-  <si>
-    <t>23,897,251</t>
-  </si>
-  <si>
-    <t>29,129,660</t>
-  </si>
-  <si>
-    <t>33,918,526</t>
-  </si>
-  <si>
-    <t>39,024,808</t>
-  </si>
-  <si>
-    <t>44,103,219</t>
-  </si>
-  <si>
-    <t>49,616,878</t>
-  </si>
-  <si>
-    <t>54,948,656</t>
-  </si>
-  <si>
-    <t>60,972,609</t>
   </si>
 </sst>
 </file>
@@ -946,298 +670,298 @@
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>96</v>
+      <c r="B2" t="n">
+        <v>6018213</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2552357</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5428755</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5930748</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6239676</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5952754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5942364</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5786107</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5879394</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6478670</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6884975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7124072</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6016442</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3173166</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7078477</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6735805</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7588325</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6899620</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6647943</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6631880</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6506670</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6766999</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6499550</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7217554</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>6851825</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3279346</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>5274419</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5767824</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5623713</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5516532</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5746639</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5512417</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5546527</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>5901983</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>5547070</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>5867232</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>5066062</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2595177</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5338549</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>5557712</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>5339750</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>5232410</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>4788866</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>5106282</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>5078411</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>5513659</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>5331778</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6023954</v>
       </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" t="s">
-        <v>115</v>
-      </c>
-      <c r="V3" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>141</v>
+      <c r="B3" t="n">
+        <v>6018213</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8570570</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13999325</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19930073</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26169749</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32122503</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38064867</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43850974</v>
+      </c>
+      <c r="J3" t="n">
+        <v>49730368</v>
+      </c>
+      <c r="K3" t="n">
+        <v>56209038</v>
+      </c>
+      <c r="L3" t="n">
+        <v>63094013</v>
+      </c>
+      <c r="M3" t="n">
+        <v>70218085</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6016442</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9189608</v>
+      </c>
+      <c r="P3" t="n">
+        <v>16268085</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>23003890</v>
+      </c>
+      <c r="R3" t="n">
+        <v>30592215</v>
+      </c>
+      <c r="S3" t="n">
+        <v>37491835</v>
+      </c>
+      <c r="T3" t="n">
+        <v>44139778</v>
+      </c>
+      <c r="U3" t="n">
+        <v>50771658</v>
+      </c>
+      <c r="V3" t="n">
+        <v>57278328</v>
+      </c>
+      <c r="W3" t="n">
+        <v>64045327</v>
+      </c>
+      <c r="X3" t="n">
+        <v>70544877</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>77762431</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6851825</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>10131171</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>15405590</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>21173414</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>26797127</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>32313659</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>38060298</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>43572715</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>49119242</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>55021225</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>60568295</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>66435527</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5066062</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7661239</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12999788</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>18557500</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23897251</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>29129660</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>33918526</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>39024808</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>44103219</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>49616878</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>54948656</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>60972609</v>
       </c>
     </row>
   </sheetData>
